--- a/algoritmos/GA/fu.xlsx
+++ b/algoritmos/GA/fu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willian.lemos\Documents\TCC\grafos-metaheuristicas\algoritmos\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CD1BFE-2256-4FBA-8C26-123555EEA020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0FF70A-D5E7-4ACE-9BCF-D4641C5A829F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -50,8 +58,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,31 +375,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:BB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>24.372499999999999</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
       <c r="C1">
+        <v>24.12</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>24.45</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>24.465</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>24.552499999999998</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>24.4375</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>24.3325</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>24.355</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>24.47</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>24.285</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>24.27</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>24.294999999999991</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>24.192499999999999</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>24.317499999999999</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>24.29</v>
+      </c>
+      <c r="AD1">
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <v>24.05</v>
+      </c>
+      <c r="AF1">
+        <v>0</v>
+      </c>
+      <c r="AG1">
+        <v>24.207499999999989</v>
+      </c>
+      <c r="AH1">
+        <v>0</v>
+      </c>
+      <c r="AI1">
+        <v>24.364999999999991</v>
+      </c>
+      <c r="AJ1">
+        <v>0</v>
+      </c>
+      <c r="AK1">
+        <v>24.315000000000001</v>
+      </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <v>24.0975</v>
+      </c>
+      <c r="AN1">
+        <v>0</v>
+      </c>
+      <c r="AO1">
+        <v>24.164999999999999</v>
+      </c>
+      <c r="AP1">
+        <v>0</v>
+      </c>
+      <c r="AQ1">
+        <v>24.08250000000001</v>
+      </c>
+      <c r="AR1">
+        <v>0</v>
+      </c>
+      <c r="AS1">
+        <v>24.0975</v>
+      </c>
+      <c r="AT1">
+        <v>0</v>
+      </c>
+      <c r="AU1">
+        <v>24.122499999999999</v>
+      </c>
+      <c r="AV1">
+        <v>0</v>
+      </c>
+      <c r="AW1">
+        <v>24.13249999999999</v>
+      </c>
+      <c r="AX1">
+        <v>0</v>
+      </c>
+      <c r="AY1">
+        <v>24.065000000000001</v>
+      </c>
+      <c r="AZ1">
+        <v>0</v>
+      </c>
+      <c r="BA1">
+        <v>24.147500000000001</v>
+      </c>
+      <c r="BB1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>24.3475</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>24.12</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -401,358 +558,323 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>24.212499999999999</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>24.227499999999999</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>24.302499999999998</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>24.3475</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>24.3675</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>24.2425</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>24.385000000000009</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>24.310000000000009</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>24.094999999999992</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>24.145</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>24.197500000000009</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>24.202500000000001</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>24.1175</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>24.327500000000001</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>24.317499999999999</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>24.25</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>24.037500000000001</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>24.864999999999998</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>24.202500000000001</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>24.015000000000001</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>24.0275</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>24.0275</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>24.052499999999998</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>23.954999999999998</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>24.045000000000002</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>24.45</v>
+        <v>24.414999999999999</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>24.212499999999999</v>
+        <v>24.265000000000001</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>24.465</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>24.227499999999999</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>24.552499999999998</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>24.302499999999998</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>24.4375</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>24.3475</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>24.3325</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>24.3675</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>24.355</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="E3">
+        <v>24.232499999999991</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>24.352499999999999</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>24.317499999999999</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>24.342500000000001</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>24.497499999999999</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>24.422499999999999</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>24.387499999999999</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>24.09500000000001</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>24.25</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
         <v>24.2425</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>24.47</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>24.385000000000009</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>24.285</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>24.310000000000009</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>24.27</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>24.094999999999992</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>24.294999999999991</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>24.145</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>24.192499999999999</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>24.197500000000009</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>24.317499999999999</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>24.202500000000001</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>24.29</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>24.1175</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>24.05</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>24.327500000000001</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>24.207499999999989</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>24.317499999999999</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>24.364999999999991</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>24.25</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>24.315000000000001</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>24.037500000000001</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>24.18249999999999</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>24.112500000000001</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>24.300000000000011</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>24.357500000000002</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>24.342500000000001</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>24.2925</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>24.33</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>24.81</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>24.822500000000002</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>24.225000000000001</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>24.0975</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>24.864999999999998</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>24.164999999999999</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>24.202500000000001</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>24.08250000000001</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>24.015000000000001</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>24.0975</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>24.0275</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>24.122499999999999</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>24.0275</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24.13249999999999</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>24.052499999999998</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>24.11</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>23.997499999999999</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>24.09</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
         <v>24.065000000000001</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>23.954999999999998</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>24.147500000000001</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>24.045000000000002</v>
-      </c>
-      <c r="D27">
+      <c r="BB3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/algoritmos/GA/fu.xlsx
+++ b/algoritmos/GA/fu.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willian.lemos\Documents\TCC\grafos-metaheuristicas\algoritmos\GA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ho\Desktop\TCC\TCC2\algoritmos\GA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0FF70A-D5E7-4ACE-9BCF-D4641C5A829F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,14 +373,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="BC10" sqref="BC10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>24.372499999999999</v>
       </c>
@@ -544,8 +545,11 @@
       <c r="BB1">
         <v>0</v>
       </c>
+      <c r="BC1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>24.3475</v>
       </c>
@@ -708,8 +712,11 @@
       <c r="BB2">
         <v>0</v>
       </c>
+      <c r="BC2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24.414999999999999</v>
       </c>
@@ -871,10 +878,347 @@
       </c>
       <c r="BB3">
         <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>24.195</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>24.2575</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>24.260000000000009</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>24.530000000000008</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>24.225000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>24.355</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>24.355</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>24.2425</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>24.177499999999991</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>24.177499999999991</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>24.1525</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>24.28</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>24.107500000000009</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>24.112500000000011</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>24.1175</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>23.97</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>24.094999999999999</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>24.11750000000001</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>24.73</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>24.142499999999998</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>24.8125</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>23.982500000000002</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>24.8</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>24.06750000000001</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>24.022500000000001</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>24.06999999999999</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>24.085000000000001</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>24.107500000000002</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>24.3825</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>24.155000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>24.357500000000002</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>24.237500000000001</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>24.217500000000001</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>24.114999999999998</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>24.3675</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>24.35</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>24.22</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>24.155000000000001</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>24.25749999999999</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>24.107500000000002</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>24.125</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>24.125</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>24.27000000000001</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>24.142499999999998</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>24.107500000000002</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>24.034999999999989</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>24.135000000000009</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>24.684999999999999</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>23.984999999999999</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>23.9375</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>23.962499999999999</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>23.987500000000001</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>24.004999999999999</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>24.004999999999999</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>